--- a/Correios/A-Entrada/exemplo_2.xlsx
+++ b/Correios/A-Entrada/exemplo_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gst_9\Documents\bpa\Correios\A-Entrada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F424F5A-B97D-4768-88F8-536CBD62D112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08304D98-D91D-4870-B785-16E82C778475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22230" yWindow="1725" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>CEP</t>
   </si>
@@ -364,7 +364,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,7 +385,15 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>38400322</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
